--- a/Gruppi vDraft.xlsx
+++ b/Gruppi vDraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vodafone-my.sharepoint.com/personal/gabriele_appolloni_vodafone_com/Documents/$Vodafone/VF-IT Manager/Strategy &amp; Trasformation team/Townhall/Nov25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{5EDA445C-6B3F-486B-A2DB-0C256EC814CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3342D6-4CA4-4FC3-95D0-A845FEB0542E}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{5EDA445C-6B3F-486B-A2DB-0C256EC814CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13640E3F-59E2-4FA2-885B-5F9AABD8904C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" xr2:uid="{DBABEFF6-2F2C-456A-AB1E-B145039D15C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="696" activeTab="5" xr2:uid="{DBABEFF6-2F2C-456A-AB1E-B145039D15C4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="10" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="379">
   <si>
     <t>Email</t>
   </si>
@@ -1188,6 +1188,12 @@
   </si>
   <si>
     <t>Milena.sebastianelli@fastweb.it</t>
+  </si>
+  <si>
+    <t>Paradiso Fabiana</t>
+  </si>
+  <si>
+    <t>fabiana.paradiso@vodafone.com</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FABBD7-DAFB-47C1-A7D8-9386A10EB27D}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3752,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4F4D21-577F-4293-9295-D0A900965A2B}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3962,10 +3968,10 @@
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>233</v>
@@ -3976,13 +3982,13 @@
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>3</v>
@@ -3990,13 +3996,13 @@
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>3</v>
@@ -4004,22 +4010,31 @@
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="D19" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -4056,23 +4071,24 @@
   </sheetData>
   <autoFilter ref="A1:D34" xr:uid="{9B61EBA4-7AC6-4857-A0D4-730A2D48447F}"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Davide.Belletti@Vodafone.com" xr:uid="{68744252-2F94-4617-93FF-FFCAAC81B6A4}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Davide.Belletti@Vodafone.com" xr:uid="{EC1B5450-27E3-4739-8AC0-B0C005B64FA4}"/>
-    <hyperlink ref="B4" r:id="rId3" display="Davide.Belletti@Vodafone.com" xr:uid="{8B020041-767C-48CA-941A-293ABBD75281}"/>
-    <hyperlink ref="B5" r:id="rId4" display="Davide.Belletti@Vodafone.com" xr:uid="{047ABC45-AB67-4C4B-92C0-04C5E6D4329F}"/>
-    <hyperlink ref="B6" r:id="rId5" display="Davide.Belletti@Vodafone.com" xr:uid="{D21D0C50-4A72-4C64-8914-65DEE1554463}"/>
-    <hyperlink ref="B7" r:id="rId6" display="Davide.Belletti@Vodafone.com" xr:uid="{C6103A3D-8BF1-4FC1-BC69-5E285C0853D8}"/>
-    <hyperlink ref="B8" r:id="rId7" display="Davide.Belletti@Vodafone.com" xr:uid="{1EE8329C-F393-4B48-9FAE-D1491DD8324D}"/>
-    <hyperlink ref="B9" r:id="rId8" display="Davide.Belletti@Vodafone.com" xr:uid="{835640F1-5944-4B00-97B1-B8E2D58CCF84}"/>
-    <hyperlink ref="B10" r:id="rId9" display="Davide.Belletti@Vodafone.com" xr:uid="{701A357E-1919-406E-B476-9F8D5384758E}"/>
-    <hyperlink ref="B11" r:id="rId10" display="Davide.Belletti@Vodafone.com" xr:uid="{4088244C-D11F-49C7-80B1-B3A4CFE3FFFC}"/>
-    <hyperlink ref="B12" r:id="rId11" display="Davide.Belletti@Vodafone.com" xr:uid="{078F6686-3677-4C35-955E-48601E94205E}"/>
-    <hyperlink ref="B13" r:id="rId12" display="Davide.Belletti@Vodafone.com" xr:uid="{A7DDFEC9-8359-47BF-BEAC-3A9E82632F3B}"/>
-    <hyperlink ref="B14" r:id="rId13" display="Davide.Belletti@Vodafone.com" xr:uid="{7CF2C674-E532-4705-9DA4-5728DCF72E0C}"/>
-    <hyperlink ref="B15" r:id="rId14" display="Davide.Belletti@Vodafone.com" xr:uid="{CAA27D36-56F8-4E97-AEA3-846E6233EAF2}"/>
-    <hyperlink ref="B16" r:id="rId15" display="Davide.Belletti@Vodafone.com" xr:uid="{F9CE7CB3-1EAC-4364-A3E1-E4F388AD1D21}"/>
-    <hyperlink ref="B17" r:id="rId16" display="Davide.Belletti@Vodafone.com" xr:uid="{4516DB5B-850C-4ACC-8E8E-C3A173915F0E}"/>
-    <hyperlink ref="B18" r:id="rId17" display="Davide.Belletti@Vodafone.com" xr:uid="{D5E6DDBB-31D7-4B3B-B8C4-8119977041A3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Davide.Belletti@Vodafone.com" xr:uid="{10EE62B4-3E93-4751-B4CC-065C330CF201}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Davide.Belletti@Vodafone.com" xr:uid="{A14DF37C-AB16-4DA3-A8BF-1BB7A0CB8049}"/>
+    <hyperlink ref="B4" r:id="rId3" display="Davide.Belletti@Vodafone.com" xr:uid="{8D4DB755-AC03-4FCA-BA1D-54C38C7ABF56}"/>
+    <hyperlink ref="B5" r:id="rId4" display="Davide.Belletti@Vodafone.com" xr:uid="{5C4BA55B-F8EB-4BFE-84A4-C8005A31B8A2}"/>
+    <hyperlink ref="B6" r:id="rId5" display="Davide.Belletti@Vodafone.com" xr:uid="{45BD93A1-BB27-4013-BCF4-B741A6CADF79}"/>
+    <hyperlink ref="B7" r:id="rId6" display="Davide.Belletti@Vodafone.com" xr:uid="{1C1A99D3-9FB0-4394-BBFB-CB5F0E85661F}"/>
+    <hyperlink ref="B8" r:id="rId7" display="Davide.Belletti@Vodafone.com" xr:uid="{BE159843-D389-4146-B4BB-9970380FD95E}"/>
+    <hyperlink ref="B9" r:id="rId8" display="Davide.Belletti@Vodafone.com" xr:uid="{FC6F462D-8069-42BC-BB97-45E5F0989514}"/>
+    <hyperlink ref="B10" r:id="rId9" display="Davide.Belletti@Vodafone.com" xr:uid="{4A9D8E62-280B-428D-8E84-25AFE42B2685}"/>
+    <hyperlink ref="B11" r:id="rId10" display="Davide.Belletti@Vodafone.com" xr:uid="{42F5DCC3-9FB4-4C0D-8CEC-FB93AF6A8E45}"/>
+    <hyperlink ref="B12" r:id="rId11" display="Davide.Belletti@Vodafone.com" xr:uid="{6397047E-8CAB-4C34-A053-2C702E7D2FE1}"/>
+    <hyperlink ref="B13" r:id="rId12" display="Davide.Belletti@Vodafone.com" xr:uid="{04F47A7B-E915-4100-BDDD-D84E7148601A}"/>
+    <hyperlink ref="B14" r:id="rId13" display="Davide.Belletti@Vodafone.com" xr:uid="{197A33D9-1D0D-4208-81EE-72CBDA2AE6AC}"/>
+    <hyperlink ref="B15" r:id="rId14" display="Davide.Belletti@Vodafone.com" xr:uid="{7BAC2506-2B21-49EA-9938-DF204D851C1C}"/>
+    <hyperlink ref="B16" r:id="rId15" display="Davide.Belletti@Vodafone.com" xr:uid="{6980D89D-165E-48DC-B0AC-F4234BB0D31A}"/>
+    <hyperlink ref="B17" r:id="rId16" display="Davide.Belletti@Vodafone.com" xr:uid="{D58957D3-69DA-4456-94FD-5224381D6A69}"/>
+    <hyperlink ref="B18" r:id="rId17" display="Davide.Belletti@Vodafone.com" xr:uid="{1F9F4D93-6CB0-4252-8639-C9FBF42C54F9}"/>
+    <hyperlink ref="B19" r:id="rId18" display="Davide.Belletti@Vodafone.com" xr:uid="{A675C3D9-9FF8-45CF-8F34-57D2B684922A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5120,6 +5136,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB273A666B8E3B498EA5380B8091C413" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4fdeb2de8fe67fa2442d68d8bb5476a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7077cc6e-1c83-4df8-8565-6fe44b73b310" xmlns:ns3="00adc3ea-0b1a-4ccd-9c6b-6719c5033e37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c1e52a704a3d60daf0dbbc86bc3a4fc" ns2:_="" ns3:_="">
     <xsd:import namespace="7077cc6e-1c83-4df8-8565-6fe44b73b310"/>
@@ -5308,15 +5333,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42952C5-DEA3-4E2C-8BAA-6A99C99A7413}">
   <ds:schemaRefs>
@@ -5329,6 +5345,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3D949D-0595-4F56-B0F7-66EDCC45B1D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD4E692-F58F-4ED6-9F10-4BF770214753}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5345,12 +5369,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3D949D-0595-4F56-B0F7-66EDCC45B1D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>